--- a/Swag Labs.xlsx
+++ b/Swag Labs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" tabRatio="869" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" tabRatio="869" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -424,9 +424,6 @@
     <t>P3</t>
   </si>
   <si>
-    <t>Verify the working of 'Newsletter' functionality</t>
-  </si>
-  <si>
     <t>(TS_001)
 Register Functionality</t>
   </si>
@@ -1052,6 +1049,9 @@
   </si>
   <si>
     <t xml:space="preserve">1. Open the Application URL </t>
+  </si>
+  <si>
+    <t>Verify the working of 'Header Menu Footer Options' functionality</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1372,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="170">
+  <dxfs count="116">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1922,414 +1922,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2936,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.25">
@@ -2944,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.25">
@@ -3035,12 +2627,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -3067,22 +2659,22 @@
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -3100,22 +2692,22 @@
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -3127,28 +2719,28 @@
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7"/>
     </row>
@@ -3163,25 +2755,25 @@
         <v>63</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -3196,25 +2788,25 @@
         <v>67</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -3224,16 +2816,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J7">
-    <cfRule type="containsText" dxfId="141" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3305,12 +2897,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -3331,28 +2923,28 @@
         <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -3364,28 +2956,28 @@
         <v>70</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -3397,28 +2989,28 @@
         <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7"/>
     </row>
@@ -3430,28 +3022,28 @@
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -3463,28 +3055,28 @@
         <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -3496,28 +3088,28 @@
         <v>70</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -3529,28 +3121,28 @@
         <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="H9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -3568,25 +3160,25 @@
         <v>81</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3603,7 +3195,7 @@
         <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>12</v>
@@ -3612,13 +3204,13 @@
         <v>85</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7"/>
     </row>
@@ -3636,7 +3228,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>12</v>
@@ -3645,13 +3237,13 @@
         <v>86</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -3661,117 +3253,117 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="137" priority="98" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="83" priority="98" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="99" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="82" priority="99" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="100" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="81" priority="100" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="101" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="80" priority="101" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="133" priority="94" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="79" priority="94" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="95" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="78" priority="95" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="96" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="77" priority="96" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="97" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="76" priority="97" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="120" priority="81" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="75" priority="81" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="82" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="74" priority="82" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="83" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="73" priority="83" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="84" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="72" priority="84" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J6">
-    <cfRule type="duplicateValues" dxfId="116" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="115" priority="76" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="77" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="78" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="68" priority="78" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="79" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="67" priority="79" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="duplicateValues" dxfId="111" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="105" priority="66" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="67" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="68" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="69" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="62" priority="69" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:J8">
-    <cfRule type="duplicateValues" dxfId="101" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="100" priority="61" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="62" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="63" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="64" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="57" priority="64" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J9">
-    <cfRule type="duplicateValues" dxfId="96" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="65" priority="26" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="55" priority="26" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="54" priority="27" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="53" priority="28" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="52" priority="29" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:J10">
-    <cfRule type="duplicateValues" dxfId="61" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="NOT TESTED">
@@ -3838,7 +3430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -3889,12 +3481,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -3915,28 +3507,28 @@
         <v>95</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -3948,28 +3540,28 @@
         <v>95</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -3981,46 +3573,46 @@
         <v>95</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>12</v>
@@ -4029,13 +3621,13 @@
         <v>90</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -4053,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>12</v>
@@ -4062,51 +3654,51 @@
         <v>93</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4117,28 +3709,28 @@
         <v>95</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -4289,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,7 +3899,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="30"/>
     </row>
@@ -4316,7 +3908,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="30"/>
     </row>
@@ -4334,7 +3926,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="30"/>
     </row>
@@ -4343,7 +3935,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="30"/>
     </row>
@@ -4352,7 +3944,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -4375,7 +3967,7 @@
     </row>
     <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>107</v>
@@ -4477,7 +4069,7 @@
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>107</v>
@@ -4511,13 +4103,13 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>113</v>
@@ -4528,13 +4120,13 @@
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>117</v>
@@ -4625,12 +4217,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4651,31 +4243,31 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="159" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4687,16 +4279,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="114" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="113" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="112" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4769,12 +4361,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4798,25 +4390,25 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -4828,28 +4420,28 @@
         <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -4861,28 +4453,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="G5" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7"/>
     </row>
@@ -4894,28 +4486,28 @@
         <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="G6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -4928,16 +4520,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J6">
-    <cfRule type="containsText" dxfId="165" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="111" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="110" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="109" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="108" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5009,12 +4601,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5035,28 +4627,28 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -5074,7 +4666,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>12</v>
@@ -5083,13 +4675,13 @@
         <v>29</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -5107,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>12</v>
@@ -5116,16 +4708,16 @@
         <v>32</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5142,7 +4734,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>12</v>
@@ -5151,19 +4743,19 @@
         <v>35</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>24</v>
@@ -5175,7 +4767,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
@@ -5184,13 +4776,13 @@
         <v>38</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -5200,16 +4792,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J7">
-    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5280,12 +4872,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5312,25 +4904,25 @@
         <v>42</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5340,16 +4932,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="103" priority="33" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="34" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="102" priority="34" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="101" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="36" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="100" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5421,12 +5013,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5444,34 +5036,34 @@
         <v>43</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5486,16 +5078,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="153" priority="77" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="99" priority="77" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="78" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="98" priority="78" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="79" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="97" priority="79" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="80" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="96" priority="80" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5567,12 +5159,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5593,31 +5185,31 @@
         <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="156.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5632,16 +5224,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="145" priority="89" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="95" priority="89" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="90" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="94" priority="90" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="91" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="93" priority="91" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="92" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="92" priority="92" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5713,12 +5305,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5733,300 +5325,300 @@
     </row>
     <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="H11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>121</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7"/>
     </row>
@@ -6036,16 +5628,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsText" dxfId="149" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Swag Labs.xlsx
+++ b/Swag Labs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" tabRatio="869" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" tabRatio="869" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -418,9 +418,6 @@
     <t>Verify the working of 'Add to Cart' functionality</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -1052,6 +1049,9 @@
   </si>
   <si>
     <t>Verify the working of 'Header Menu Footer Options' functionality</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.25">
@@ -2577,7 +2577,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,12 +2627,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -2659,22 +2659,22 @@
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -2692,22 +2692,22 @@
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -2719,28 +2719,28 @@
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7"/>
     </row>
@@ -2755,25 +2755,25 @@
         <v>63</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -2788,25 +2788,25 @@
         <v>67</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -2846,8 +2846,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,12 +2897,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -2923,28 +2923,28 @@
         <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -2956,28 +2956,28 @@
         <v>70</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -2989,28 +2989,28 @@
         <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7"/>
     </row>
@@ -3022,28 +3022,28 @@
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -3055,28 +3055,28 @@
         <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -3088,28 +3088,28 @@
         <v>70</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -3121,28 +3121,28 @@
         <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="H9" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -3160,25 +3160,25 @@
         <v>81</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>12</v>
@@ -3204,13 +3204,13 @@
         <v>85</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7"/>
     </row>
@@ -3228,7 +3228,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>12</v>
@@ -3237,13 +3237,13 @@
         <v>86</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -3430,7 +3430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -3481,12 +3481,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -3507,28 +3507,28 @@
         <v>95</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -3540,28 +3540,28 @@
         <v>95</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -3573,46 +3573,46 @@
         <v>95</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>12</v>
@@ -3621,13 +3621,13 @@
         <v>90</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -3645,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>12</v>
@@ -3654,51 +3654,51 @@
         <v>93</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3709,28 +3709,28 @@
         <v>95</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="I9" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -3881,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,7 +3899,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="30"/>
     </row>
@@ -3908,7 +3908,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="30"/>
     </row>
@@ -3926,7 +3926,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="30"/>
     </row>
@@ -3935,7 +3935,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="30"/>
     </row>
@@ -3944,7 +3944,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>107</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>107</v>
@@ -4081,7 +4081,7 @@
         <v>115</v>
       </c>
       <c r="E17" s="17">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4098,18 +4098,18 @@
         <v>115</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>113</v>
@@ -4120,19 +4120,19 @@
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E20" s="17">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4166,7 +4166,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -4217,12 +4217,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4243,31 +4243,31 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="159" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4310,8 +4310,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4361,12 +4361,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4390,25 +4390,25 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -4420,28 +4420,28 @@
         <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -4453,28 +4453,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="G5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7"/>
     </row>
@@ -4486,28 +4486,28 @@
         <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="G6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -4601,12 +4601,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4627,28 +4627,28 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -4666,7 +4666,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>12</v>
@@ -4675,13 +4675,13 @@
         <v>29</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -4699,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>12</v>
@@ -4708,16 +4708,16 @@
         <v>32</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4734,7 +4734,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>12</v>
@@ -4743,19 +4743,19 @@
         <v>35</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>24</v>
@@ -4767,7 +4767,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
@@ -4776,13 +4776,13 @@
         <v>38</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -4872,12 +4872,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4904,25 +4904,25 @@
         <v>42</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5013,12 +5013,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5036,34 +5036,34 @@
         <v>43</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5159,12 +5159,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5185,31 +5185,31 @@
         <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="156.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5255,7 +5255,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5305,12 +5305,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5325,300 +5325,300 @@
     </row>
     <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="I10" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="H11" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7"/>
     </row>

--- a/Swag Labs.xlsx
+++ b/Swag Labs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" tabRatio="869" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6735" tabRatio="869" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="283">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -266,10 +266,6 @@
     <t>TC_CO_001</t>
   </si>
   <si>
-    <t>(TS_012)
-Checkout</t>
-  </si>
-  <si>
     <t>1. Open the Application URL and ensure there are no products added to the Shopping Cart</t>
   </si>
   <si>
@@ -340,10 +336,6 @@
   </si>
   <si>
     <t>TC_HMF_005</t>
-  </si>
-  <si>
-    <t>(TS_030)
-Header Menu Footer Options</t>
   </si>
   <si>
     <t>Project Name</t>
@@ -850,10 +842,6 @@
   </si>
   <si>
     <t>TC_LG_005</t>
-  </si>
-  <si>
-    <t>(TS_001)
-Search Functionality</t>
   </si>
   <si>
     <t>TC_PDHP_001</t>
@@ -1052,6 +1040,10 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>(TS_008)
+Product Display Page</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2520,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.25">
@@ -2536,7 +2528,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.25">
@@ -2577,7 +2569,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,12 +2619,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -2659,22 +2651,22 @@
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -2692,22 +2684,22 @@
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -2719,28 +2711,28 @@
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7"/>
     </row>
@@ -2749,31 +2741,31 @@
         <v>60</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -2782,31 +2774,31 @@
         <v>62</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -2846,8 +2838,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,12 +2889,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -2920,330 +2912,330 @@
         <v>69</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -3430,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,12 +3473,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -3501,236 +3493,236 @@
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -3881,7 +3873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3896,87 +3888,87 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C7" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="E11" s="17">
         <v>1</v>
@@ -3987,13 +3979,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="E12" s="17">
         <v>4</v>
@@ -4004,13 +3996,13 @@
         <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="E13" s="17">
         <v>5</v>
@@ -4021,13 +4013,13 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="17">
         <v>1</v>
@@ -4038,13 +4030,13 @@
         <v>44</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="17">
         <v>1</v>
@@ -4055,13 +4047,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
@@ -4069,16 +4061,16 @@
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="17">
         <v>9</v>
@@ -4089,30 +4081,30 @@
         <v>55</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" s="17">
         <v>10</v>
@@ -4120,16 +4112,16 @@
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="17">
         <v>7</v>
@@ -4217,12 +4209,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4243,31 +4235,31 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="159" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4361,12 +4353,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4390,25 +4382,25 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -4420,28 +4412,28 @@
         <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -4453,28 +4445,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7"/>
     </row>
@@ -4486,28 +4478,28 @@
         <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -4601,12 +4593,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4627,28 +4619,28 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="7"/>
     </row>
@@ -4666,7 +4658,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>12</v>
@@ -4675,13 +4667,13 @@
         <v>29</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -4699,7 +4691,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>12</v>
@@ -4708,16 +4700,16 @@
         <v>32</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4734,7 +4726,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>12</v>
@@ -4743,19 +4735,19 @@
         <v>35</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>24</v>
@@ -4767,7 +4759,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
@@ -4776,13 +4768,13 @@
         <v>38</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -4872,12 +4864,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -4904,25 +4896,25 @@
         <v>42</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4962,8 +4954,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5013,12 +5005,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5036,34 +5028,34 @@
         <v>43</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5159,12 +5151,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5185,31 +5177,31 @@
         <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="156.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5305,12 +5297,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="23"/>
@@ -5325,300 +5317,300 @@
     </row>
     <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7"/>
     </row>
